--- a/BackTest/2020-01-25 BackTest ETC.xlsx
+++ b/BackTest/2020-01-25 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>3950.053946893344</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>3950.053946893344</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>3337.621546893344</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>3337.621546893344</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1844.708746893344</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1905.960646893344</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1856.313546893344</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1859.887046893344</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>1839.690646893344</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>1697.172346893344</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>1871.863346893344</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>1835.877746893344</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>1835.877746893344</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>864.1826468933438</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>864.1826468933438</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>716.2173468933438</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>787.9732468933438</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-140.3080531066562</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-432.8497531066562</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>137.5401468933438</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>5.688287761154129</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>5.688287761154129</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>359.9529877611541</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>198.1249877611541</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>557.3237877611541</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>557.5761877611541</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>552.7961877611541</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>552.7961877611541</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>460.1334877611541</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>461.3698877611541</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>324.2978877611541</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>215.9335877611541</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>293.6336877611541</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>249.7369877611541</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>82.41078776115413</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>56.92608776115412</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>1957.246687761154</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>1957.246687761154</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>6195.917987761154</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>6195.917987761154</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>5664.273687761154</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>6310.407287761154</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>6649.407687761154</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>6667.799587761154</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>6667.799587761154</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>6665.389487761154</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>6465.437887761153</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>6296.101187761154</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>6204.560887761154</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>6207.573487761154</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>6179.403287761154</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>6165.289787761154</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>5679.307987761154</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>5668.929287761154</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>5353.385987761154</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>4844.189587761154</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>4844.189587761154</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>4847.595787761154</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>4840.969887761154</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>3066.072787761154</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>2856.809587761154</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>2008.538487761155</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-354.5038122388455</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-3482.166512238845</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-2591.324712238845</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1429.84913443178</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-2482.73323443178</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-2937.05543443178</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-2614.45693443178</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-2614.45693443178</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-2572.97443443178</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-2612.51563443178</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1812.51563443178</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1232.51563443178</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1148.488292938004</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-2252.713492938004</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-2183.247192938004</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-2169.247192938004</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-2035.288192938004</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-2065.288192938005</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1704.553592938005</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1640.663592938005</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-1640.270292938005</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-2055.185992938004</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-1957.928592938004</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-2231.807092938004</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-6980.542663855659</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-6896.198563855659</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-6896.198563855659</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-8133.197263855659</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-8037.445963855659</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-8382.78616686908</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-8382.78616686908</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-8385.881266869081</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-8379.877666869081</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-8377.529166869081</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-8377.529166869081</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-7655.08616686908</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-7873.921466869081</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-7867.409466869081</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-7867.409466869081</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-7867.409466869081</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-8884.337866869082</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-8928.092266869082</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-8850.732766869081</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-9206.489066869082</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-8859.704066869082</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-8980.014166869083</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-8980.014166869083</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-8980.014166869083</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-8925.981766869083</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-8925.981766869083</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-8925.981766869083</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-7562.522654763284</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-7707.800554763284</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-7635.873554763284</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-7764.910154763284</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-7380.084354763285</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-6391.028854763284</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-6391.028854763284</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-6390.836654763284</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-6144.762254763284</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-6176.825354763284</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-6176.825354763284</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-5937.572454763284</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-6501.158654763283</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-6501.158654763283</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-6501.158654763283</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-6501.158654763283</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-6701.158654763283</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-6926.634454763283</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-6926.634454763283</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-7617.186195859173</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-7617.186195859173</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-7617.186195859173</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-7822.830595859174</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-7980.665995859174</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-8073.348095859174</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-8073.348095859174</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-8071.421595859174</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-8076.421595859174</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-8367.524195859174</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-8452.484995859175</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-8795.282695859174</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-8755.431095859174</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-9068.932695859174</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-9033.892295859174</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-9035.338195859174</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-9035.338195859174</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-9037.338195859174</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-9037.338195859174</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-7564.693395859174</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-7569.603395859174</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-7494.253395859174</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-7494.253395859174</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-7437.996295859174</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-9698.824495859175</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-9698.824495859175</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-7143.968133626126</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-7145.262333626126</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-6812.734833626125</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-7273.190233626125</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-7269.445933626124</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-7138.955933626125</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-6951.824733626125</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-6404.768033626125</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-6404.768033626125</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-5729.311433626124</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-5573.462833626124</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-5573.462833626124</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-5573.462833626124</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-5784.812333626124</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-5398.916433626124</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-5631.804233626124</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-5631.804233626124</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-6169.698133626124</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-6266.452733626124</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-6269.318133626125</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-7524.831033626125</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-7519.831233626125</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-7542.906733626125</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-7420.906733626125</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-7420.906733626125</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-8068.732533626125</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-8068.732533626125</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-8072.502533626125</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-8059.761433626125</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-7812.988633626125</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-7785.005733626125</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-7753.442033626126</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-7709.794233626126</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-7871.863533626126</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-8197.008933626126</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-8043.720333626126</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-8043.720333626126</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-8043.720333626126</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-8046.200433626126</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-8385.427833626127</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-8390.937333626127</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-8543.735533626126</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-8643.735533626126</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-8734.060933626126</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-10813.18480590185</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-10961.86310590185</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-10961.86310590185</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-10961.86310590185</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-11014.86310590185</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-10978.86310590185</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-10978.86310590185</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-11036.24290590185</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-11036.24290590185</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-11036.24290590185</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-11036.24290590185</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-11036.24290590185</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-11036.24290590185</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-11140.48000590185</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-11136.53430590185</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-11144.10020590185</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-11144.10020590185</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -16555,11 +16555,17 @@
         <v>-35134.0788661432</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>9330</v>
+      </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16588,11 +16594,17 @@
         <v>-35771.8606661432</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>9310</v>
+      </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16621,11 +16633,17 @@
         <v>-34587.8509661432</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>9305</v>
+      </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16654,7 +16672,7 @@
         <v>-34285.95016614319</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I493" t="n">
         <v>9335</v>
@@ -16662,7 +16680,7 @@
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L493" t="n">
@@ -16693,7 +16711,7 @@
         <v>-33834.2907661432</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I494" t="n">
         <v>9340</v>
@@ -16732,9 +16750,11 @@
         <v>-33636.9915116171</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>9360</v>
+      </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
@@ -16769,9 +16789,11 @@
         <v>-33636.9915116171</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>9390</v>
+      </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
@@ -23429,11 +23451,9 @@
         <v>-27705.00618066788</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
-      </c>
-      <c r="I676" t="n">
-        <v>9365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
@@ -23468,11 +23488,9 @@
         <v>-27705.00618066788</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
-      </c>
-      <c r="I677" t="n">
-        <v>9340</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
@@ -23507,11 +23525,9 @@
         <v>-28171.70388066788</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
-      </c>
-      <c r="I678" t="n">
-        <v>9340</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
@@ -23583,11 +23599,9 @@
         <v>-28639.27848066788</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
-      </c>
-      <c r="I680" t="n">
-        <v>9285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
@@ -23622,11 +23636,9 @@
         <v>-28639.27848066788</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
-      </c>
-      <c r="I681" t="n">
-        <v>9280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
@@ -23661,11 +23673,9 @@
         <v>-28639.27848066788</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
-      </c>
-      <c r="I682" t="n">
-        <v>9280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
@@ -23700,11 +23710,9 @@
         <v>-29346.27848066788</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
-      </c>
-      <c r="I683" t="n">
-        <v>9280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
@@ -23739,11 +23747,9 @@
         <v>-30013.44218066788</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
-      </c>
-      <c r="I684" t="n">
-        <v>9270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
@@ -23778,11 +23784,9 @@
         <v>-29941.35498066788</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
-      </c>
-      <c r="I685" t="n">
-        <v>9255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
@@ -23817,7 +23821,7 @@
         <v>-29940.75498066788</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I686" t="n">
         <v>9275</v>
@@ -23856,11 +23860,9 @@
         <v>-29685.97568066788</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
-      </c>
-      <c r="I687" t="n">
-        <v>9300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
@@ -23895,11 +23897,9 @@
         <v>-29685.87968066788</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
-      </c>
-      <c r="I688" t="n">
-        <v>9335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
@@ -23934,11 +23934,9 @@
         <v>-29583.73658066788</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
-      </c>
-      <c r="I689" t="n">
-        <v>9345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
@@ -23973,11 +23971,9 @@
         <v>-29971.50338066788</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
-      </c>
-      <c r="I690" t="n">
-        <v>9385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
@@ -24012,11 +24008,9 @@
         <v>-29962.00338066788</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
-      </c>
-      <c r="I691" t="n">
-        <v>9380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
@@ -24051,11 +24045,9 @@
         <v>-29733.82268066788</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
-      </c>
-      <c r="I692" t="n">
-        <v>9390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
@@ -24090,11 +24082,9 @@
         <v>-29324.05968066788</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
-      </c>
-      <c r="I693" t="n">
-        <v>9395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
@@ -24129,11 +24119,9 @@
         <v>-29032.71718066788</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
-      </c>
-      <c r="I694" t="n">
-        <v>9470</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
@@ -25241,7 +25229,7 @@
         <v>-30327.39858066789</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I724" t="n">
         <v>9290</v>
@@ -25280,9 +25268,11 @@
         <v>-30391.71698066789</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>9300</v>
+      </c>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
@@ -25317,9 +25307,11 @@
         <v>-30362.50448066789</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>9295</v>
+      </c>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
@@ -25354,9 +25346,11 @@
         <v>-30361.08668066789</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I727" t="n">
+        <v>9325</v>
+      </c>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
@@ -25391,9 +25385,11 @@
         <v>-30345.24008066789</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>9375</v>
+      </c>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
@@ -25539,11 +25535,9 @@
         <v>-30381.96538066789</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
-      </c>
-      <c r="I732" t="n">
-        <v>9355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
@@ -25578,11 +25572,9 @@
         <v>-30450.96538066789</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
-      </c>
-      <c r="I733" t="n">
-        <v>9330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
@@ -25654,11 +25646,9 @@
         <v>-30298.03191797331</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
-      </c>
-      <c r="I735" t="n">
-        <v>9315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
@@ -25693,11 +25683,9 @@
         <v>-30443.38031797331</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
-      </c>
-      <c r="I736" t="n">
-        <v>9305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
@@ -25732,7 +25720,7 @@
         <v>-30411.59071797331</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I737" t="n">
         <v>9285</v>
@@ -25771,7 +25759,7 @@
         <v>-30411.59071797331</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I738" t="n">
         <v>9295</v>
@@ -25810,7 +25798,7 @@
         <v>-30266.41681797331</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I739" t="n">
         <v>9295</v>
@@ -25849,7 +25837,7 @@
         <v>-30170.98221797331</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I740" t="n">
         <v>9300</v>
@@ -25888,7 +25876,7 @@
         <v>-30284.12401797331</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I741" t="n">
         <v>9330</v>
@@ -25927,7 +25915,7 @@
         <v>-30367.67871797331</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I742" t="n">
         <v>9295</v>
@@ -25966,7 +25954,7 @@
         <v>-30269.02101797331</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I743" t="n">
         <v>9280</v>
@@ -26005,11 +25993,9 @@
         <v>-30241.53811797331</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
-      </c>
-      <c r="I744" t="n">
-        <v>9340</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
@@ -26044,11 +26030,9 @@
         <v>-30241.53811797331</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
-      </c>
-      <c r="I745" t="n">
-        <v>9370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
@@ -26083,11 +26067,9 @@
         <v>-30397.48291797331</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
-      </c>
-      <c r="I746" t="n">
-        <v>9370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
@@ -26899,7 +26881,7 @@
         <v>-26910.73305542973</v>
       </c>
       <c r="H768" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -26936,7 +26918,7 @@
         <v>-26840.16865542973</v>
       </c>
       <c r="H769" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -26973,7 +26955,7 @@
         <v>-27252.16865542973</v>
       </c>
       <c r="H770" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -27010,7 +26992,7 @@
         <v>-26029.87365542973</v>
       </c>
       <c r="H771" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -27047,7 +27029,7 @@
         <v>-26029.87365542973</v>
       </c>
       <c r="H772" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -27084,7 +27066,7 @@
         <v>-24910.47075542973</v>
       </c>
       <c r="H773" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -27121,7 +27103,7 @@
         <v>-28920.94580089334</v>
       </c>
       <c r="H774" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -27232,7 +27214,7 @@
         <v>-29851.33850089334</v>
       </c>
       <c r="H777" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -27269,7 +27251,7 @@
         <v>-31166.83570089334</v>
       </c>
       <c r="H778" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -27639,9 +27621,11 @@
         <v>-36957.10310089333</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>9930</v>
+      </c>
       <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
@@ -29748,18 +29732,16 @@
         <v>-33002.52717181393</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L845" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L845" t="inlineStr"/>
       <c r="M845" t="inlineStr"/>
     </row>
     <row r="846">
@@ -29789,11 +29771,7 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -29826,11 +29804,7 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -29863,11 +29837,7 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -29900,11 +29870,7 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -29937,11 +29903,7 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -29974,11 +29936,7 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K851" t="inlineStr"/>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -30011,11 +29969,7 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -30048,11 +30002,7 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -30085,11 +30035,7 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -30122,11 +30068,7 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -30159,11 +30101,7 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -30196,11 +30134,7 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -30233,11 +30167,7 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -30270,11 +30200,7 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -30307,11 +30233,7 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -30344,11 +30266,7 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -30381,11 +30299,7 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -30418,11 +30332,7 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -30455,11 +30365,7 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K864" t="inlineStr"/>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -30492,11 +30398,7 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K865" t="inlineStr"/>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -30529,11 +30431,7 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K866" t="inlineStr"/>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -30566,11 +30464,7 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K867" t="inlineStr"/>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -30603,11 +30497,7 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K868" t="inlineStr"/>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -30640,11 +30530,7 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K869" t="inlineStr"/>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -30677,11 +30563,7 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K870" t="inlineStr"/>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -30714,11 +30596,7 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K871" t="inlineStr"/>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -30751,11 +30629,7 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K872" t="inlineStr"/>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -30788,11 +30662,7 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K873" t="inlineStr"/>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -30825,11 +30695,7 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K874" t="inlineStr"/>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -30862,11 +30728,7 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K875" t="inlineStr"/>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -30899,11 +30761,7 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K876" t="inlineStr"/>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -30936,11 +30794,7 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K877" t="inlineStr"/>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -30973,11 +30827,7 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K878" t="inlineStr"/>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -31010,11 +30860,7 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K879" t="inlineStr"/>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -31047,11 +30893,7 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K880" t="inlineStr"/>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -31084,11 +30926,7 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K881" t="inlineStr"/>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -31121,11 +30959,7 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K882" t="inlineStr"/>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -31158,11 +30992,7 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K883" t="inlineStr"/>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -31195,11 +31025,7 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K884" t="inlineStr"/>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -31232,11 +31058,7 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K885" t="inlineStr"/>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -31269,11 +31091,7 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K886" t="inlineStr"/>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -31306,11 +31124,7 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K887" t="inlineStr"/>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -31343,11 +31157,7 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K888" t="inlineStr"/>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -31380,11 +31190,7 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K889" t="inlineStr"/>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -31417,11 +31223,7 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K890" t="inlineStr"/>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -31454,11 +31256,7 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K891" t="inlineStr"/>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -31491,11 +31289,7 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K892" t="inlineStr"/>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -31528,11 +31322,7 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K893" t="inlineStr"/>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -31565,11 +31355,7 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K894" t="inlineStr"/>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -31602,11 +31388,7 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K895" t="inlineStr"/>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -31639,11 +31421,7 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K896" t="inlineStr"/>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -31676,11 +31454,7 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K897" t="inlineStr"/>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -31713,11 +31487,7 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K898" t="inlineStr"/>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -31750,11 +31520,7 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K899" t="inlineStr"/>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -31787,11 +31553,7 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K900" t="inlineStr"/>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -31824,11 +31586,7 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K901" t="inlineStr"/>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -31861,11 +31619,7 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K902" t="inlineStr"/>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -31898,11 +31652,7 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K903" t="inlineStr"/>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -31935,11 +31685,7 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K904" t="inlineStr"/>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -31972,11 +31718,7 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K905" t="inlineStr"/>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -32009,11 +31751,7 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K906" t="inlineStr"/>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -32046,11 +31784,7 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K907" t="inlineStr"/>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -32083,17 +31817,13 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K908" t="inlineStr"/>
       <c r="L908" t="n">
         <v>1</v>
       </c>
       <c r="M908" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest ETC.xlsx
+++ b/BackTest/2020-01-25 BackTest ETC.xlsx
@@ -451,7 +451,7 @@
         <v>3950.053946893344</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>3950.053946893344</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>3337.621546893344</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>3337.621546893344</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1844.708746893344</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1905.960646893344</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1856.313546893344</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1859.887046893344</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>1839.690646893344</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>1697.172346893344</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>1871.863346893344</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>1835.877746893344</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>1835.877746893344</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>864.1826468933438</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>864.1826468933438</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>716.2173468933438</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>557.3237877611541</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>552.7961877611541</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>552.7961877611541</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>460.1334877611541</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>461.3698877611541</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>324.2978877611541</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>215.9335877611541</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>293.6336877611541</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>249.7369877611541</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>82.41078776115413</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>56.92608776115412</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>1957.246687761154</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>1957.246687761154</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>6195.917987761154</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>6195.917987761154</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>5664.273687761154</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>6310.407287761154</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>6649.407687761154</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>6667.799587761154</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>6667.799587761154</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>6665.389487761154</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>6465.437887761153</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>6296.101187761154</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>6204.560887761154</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>6207.573487761154</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>6179.403287761154</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>6165.289787761154</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>5679.307987761154</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>5668.929287761154</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>5353.385987761154</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-6144.762254763284</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-6176.825354763284</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-6176.825354763284</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-5937.572454763284</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-6501.158654763283</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-6501.158654763283</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-6501.158654763283</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-6501.158654763283</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-6701.158654763283</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-6926.634454763283</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-6926.634454763283</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-5573.462833626124</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-5573.462833626124</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-5573.462833626124</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-5784.812333626124</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-5398.916433626124</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-5631.804233626124</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-5631.804233626124</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-6169.698133626124</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-6266.452733626124</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-6266.452733626124</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-6265.252733626125</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-6269.318133626125</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-7524.831033626125</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-7519.831233626125</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-7542.906733626125</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-7420.906733626125</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-8068.732533626125</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-8068.732533626125</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-8059.761433626125</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-7812.988633626125</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-7785.005733626125</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-7753.442033626126</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-7709.794233626126</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-7871.863533626126</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-8197.008933626126</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-8043.720333626126</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-8043.720333626126</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-8043.720333626126</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-8046.200433626126</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-8385.427833626127</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-8390.937333626127</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-8543.735533626126</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -18106,10 +18106,14 @@
         <v>-30050.87211712985</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>9460</v>
+      </c>
+      <c r="J537" t="n">
+        <v>9460</v>
+      </c>
       <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
@@ -18139,11 +18143,19 @@
         <v>-30354.22621712985</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>9460</v>
+      </c>
+      <c r="J538" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18172,11 +18184,19 @@
         <v>-30301.48360109609</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>9420</v>
+      </c>
+      <c r="J539" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18205,11 +18225,19 @@
         <v>-30301.48360109609</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>9480</v>
+      </c>
+      <c r="J540" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18238,11 +18266,19 @@
         <v>-30297.54000109609</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>9480</v>
+      </c>
+      <c r="J541" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18274,8 +18310,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18307,8 +18349,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18340,8 +18388,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18373,8 +18427,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18403,11 +18463,19 @@
         <v>-30756.54733608029</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>9420</v>
+      </c>
+      <c r="J546" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18439,8 +18507,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18472,8 +18546,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18505,8 +18585,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18538,8 +18624,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18571,8 +18663,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18604,8 +18702,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18637,8 +18741,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18670,8 +18780,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18703,8 +18819,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18736,8 +18858,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18769,8 +18897,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18802,8 +18936,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18835,8 +18975,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18868,8 +19014,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -18901,8 +19053,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -18934,8 +19092,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -18967,8 +19131,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19000,8 +19170,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19033,8 +19209,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19066,8 +19248,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19099,8 +19287,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19132,8 +19326,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19165,8 +19365,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19198,8 +19404,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19231,8 +19443,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19264,8 +19482,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19297,8 +19521,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19330,8 +19560,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19363,8 +19599,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19396,8 +19638,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19429,8 +19677,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19462,8 +19716,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19495,8 +19755,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19528,8 +19794,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19561,8 +19833,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19594,8 +19872,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19627,8 +19911,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19660,8 +19950,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19693,8 +19989,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19726,8 +20028,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19759,8 +20067,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19792,8 +20106,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19825,8 +20145,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19858,8 +20184,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19891,8 +20223,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19924,8 +20262,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -19957,8 +20301,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -19990,8 +20340,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20023,8 +20379,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20056,8 +20418,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20089,8 +20457,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20122,8 +20496,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20155,8 +20535,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20188,8 +20574,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20221,8 +20613,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20254,8 +20652,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20287,8 +20691,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20320,8 +20730,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20353,8 +20769,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20386,8 +20808,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20419,8 +20847,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20452,8 +20886,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20485,8 +20925,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20518,8 +20964,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20551,8 +21003,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20584,8 +21042,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20617,8 +21081,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20650,8 +21120,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20683,8 +21159,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20716,8 +21198,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20749,8 +21237,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20782,8 +21276,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20815,8 +21315,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20848,8 +21354,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20881,8 +21393,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20914,8 +21432,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20947,8 +21471,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -20980,8 +21510,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21013,8 +21549,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21046,8 +21588,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21079,8 +21627,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21112,8 +21666,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21145,8 +21705,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21178,8 +21744,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21211,8 +21783,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21244,8 +21822,14 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21277,8 +21861,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21310,8 +21900,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21343,8 +21939,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21376,8 +21978,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21409,8 +22017,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21442,8 +22056,14 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21475,8 +22095,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21508,8 +22134,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21541,8 +22173,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21574,8 +22212,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21607,8 +22251,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21640,8 +22290,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21673,8 +22329,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21706,8 +22368,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21739,8 +22407,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -21772,8 +22446,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -21805,8 +22485,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -21838,8 +22524,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -21871,8 +22563,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -21904,8 +22602,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -21937,8 +22641,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -21970,8 +22680,14 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22003,8 +22719,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22036,8 +22758,14 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22069,8 +22797,14 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22102,8 +22836,14 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22135,8 +22875,14 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22168,8 +22914,14 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22201,8 +22953,14 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22234,8 +22992,14 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22267,8 +23031,14 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22300,8 +23070,14 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22333,8 +23109,14 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22366,8 +23148,14 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22399,8 +23187,14 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22432,8 +23226,14 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22465,8 +23265,14 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22498,8 +23304,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22531,8 +23343,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22564,8 +23382,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22597,8 +23421,14 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22630,8 +23460,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22663,8 +23499,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22696,8 +23538,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22729,8 +23577,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22762,8 +23616,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -22795,8 +23655,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -22825,15 +23691,15 @@
         <v>-28639.27848066788</v>
       </c>
       <c r="H680" t="n">
-        <v>1</v>
-      </c>
-      <c r="I680" t="n">
-        <v>9285</v>
-      </c>
-      <c r="J680" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>9460</v>
+      </c>
       <c r="K680" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L680" t="n">
@@ -22864,12 +23730,12 @@
         <v>-28639.27848066788</v>
       </c>
       <c r="H681" t="n">
-        <v>1</v>
-      </c>
-      <c r="I681" t="n">
-        <v>9280</v>
-      </c>
-      <c r="J681" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>9460</v>
+      </c>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22903,12 +23769,12 @@
         <v>-28639.27848066788</v>
       </c>
       <c r="H682" t="n">
-        <v>1</v>
-      </c>
-      <c r="I682" t="n">
-        <v>9280</v>
-      </c>
-      <c r="J682" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>9460</v>
+      </c>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22942,12 +23808,12 @@
         <v>-29346.27848066788</v>
       </c>
       <c r="H683" t="n">
-        <v>1</v>
-      </c>
-      <c r="I683" t="n">
-        <v>9280</v>
-      </c>
-      <c r="J683" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>9460</v>
+      </c>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22981,12 +23847,12 @@
         <v>-30013.44218066788</v>
       </c>
       <c r="H684" t="n">
-        <v>1</v>
-      </c>
-      <c r="I684" t="n">
-        <v>9270</v>
-      </c>
-      <c r="J684" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>9460</v>
+      </c>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23020,12 +23886,12 @@
         <v>-29941.35498066788</v>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
-      </c>
-      <c r="I685" t="n">
-        <v>9255</v>
-      </c>
-      <c r="J685" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>9460</v>
+      </c>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23059,12 +23925,12 @@
         <v>-29940.75498066788</v>
       </c>
       <c r="H686" t="n">
-        <v>1</v>
-      </c>
-      <c r="I686" t="n">
-        <v>9275</v>
-      </c>
-      <c r="J686" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>9460</v>
+      </c>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23098,12 +23964,12 @@
         <v>-29685.97568066788</v>
       </c>
       <c r="H687" t="n">
-        <v>1</v>
-      </c>
-      <c r="I687" t="n">
-        <v>9300</v>
-      </c>
-      <c r="J687" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>9460</v>
+      </c>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23137,12 +24003,12 @@
         <v>-29685.87968066788</v>
       </c>
       <c r="H688" t="n">
-        <v>1</v>
-      </c>
-      <c r="I688" t="n">
-        <v>9335</v>
-      </c>
-      <c r="J688" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>9460</v>
+      </c>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23176,12 +24042,12 @@
         <v>-29583.73658066788</v>
       </c>
       <c r="H689" t="n">
-        <v>1</v>
-      </c>
-      <c r="I689" t="n">
-        <v>9345</v>
-      </c>
-      <c r="J689" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>9460</v>
+      </c>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23218,7 +24084,9 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>9460</v>
+      </c>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23255,7 +24123,9 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>9460</v>
+      </c>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23292,7 +24162,9 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>9460</v>
+      </c>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23329,7 +24201,9 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>9460</v>
+      </c>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23366,7 +24240,9 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>9460</v>
+      </c>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23403,7 +24279,9 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>9460</v>
+      </c>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23440,7 +24318,9 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>9460</v>
+      </c>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23477,7 +24357,9 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>9460</v>
+      </c>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23514,7 +24396,9 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>9460</v>
+      </c>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23551,7 +24435,9 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>9460</v>
+      </c>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23588,7 +24474,9 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>9460</v>
+      </c>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23625,7 +24513,9 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>9460</v>
+      </c>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23662,7 +24552,9 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>9460</v>
+      </c>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23699,7 +24591,9 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>9460</v>
+      </c>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23736,7 +24630,9 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>9460</v>
+      </c>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23773,7 +24669,9 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>9460</v>
+      </c>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23810,7 +24708,9 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>9460</v>
+      </c>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23847,7 +24747,9 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>9460</v>
+      </c>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23884,7 +24786,9 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>9460</v>
+      </c>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23921,7 +24825,9 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>9460</v>
+      </c>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23958,7 +24864,9 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>9460</v>
+      </c>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23995,7 +24903,9 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>9460</v>
+      </c>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24032,7 +24942,9 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>9460</v>
+      </c>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24069,7 +24981,9 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>9460</v>
+      </c>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24106,7 +25020,9 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>9460</v>
+      </c>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24143,7 +25059,9 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>9460</v>
+      </c>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24180,7 +25098,9 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>9460</v>
+      </c>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24217,7 +25137,9 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>9460</v>
+      </c>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24254,7 +25176,9 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>9460</v>
+      </c>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24291,7 +25215,9 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>9460</v>
+      </c>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24328,7 +25254,9 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>9460</v>
+      </c>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24365,7 +25293,9 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>9460</v>
+      </c>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24404,7 +25334,9 @@
       <c r="I722" t="n">
         <v>9235</v>
       </c>
-      <c r="J722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>9460</v>
+      </c>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24443,7 +25375,9 @@
       <c r="I723" t="n">
         <v>9235</v>
       </c>
-      <c r="J723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>9460</v>
+      </c>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24482,7 +25416,9 @@
       <c r="I724" t="n">
         <v>9290</v>
       </c>
-      <c r="J724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>9460</v>
+      </c>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24521,7 +25457,9 @@
       <c r="I725" t="n">
         <v>9300</v>
       </c>
-      <c r="J725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>9460</v>
+      </c>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24560,7 +25498,9 @@
       <c r="I726" t="n">
         <v>9295</v>
       </c>
-      <c r="J726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>9460</v>
+      </c>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24599,7 +25539,9 @@
       <c r="I727" t="n">
         <v>9325</v>
       </c>
-      <c r="J727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>9460</v>
+      </c>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24633,10 +25575,14 @@
         <v>-30345.24008066789</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>9375</v>
+      </c>
+      <c r="J728" t="n">
+        <v>9460</v>
+      </c>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24670,10 +25616,14 @@
         <v>-30345.24008066789</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>9380</v>
+      </c>
+      <c r="J729" t="n">
+        <v>9460</v>
+      </c>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24707,10 +25657,14 @@
         <v>-30345.24008066789</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>9380</v>
+      </c>
+      <c r="J730" t="n">
+        <v>9460</v>
+      </c>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24744,10 +25698,14 @@
         <v>-30380.35208066789</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>9380</v>
+      </c>
+      <c r="J731" t="n">
+        <v>9460</v>
+      </c>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24781,10 +25739,14 @@
         <v>-30381.96538066789</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>9355</v>
+      </c>
+      <c r="J732" t="n">
+        <v>9460</v>
+      </c>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24818,10 +25780,14 @@
         <v>-30450.96538066789</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>9330</v>
+      </c>
+      <c r="J733" t="n">
+        <v>9460</v>
+      </c>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24860,7 +25826,9 @@
       <c r="I734" t="n">
         <v>9295</v>
       </c>
-      <c r="J734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>9460</v>
+      </c>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24899,7 +25867,9 @@
       <c r="I735" t="n">
         <v>9315</v>
       </c>
-      <c r="J735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>9460</v>
+      </c>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24938,7 +25908,9 @@
       <c r="I736" t="n">
         <v>9305</v>
       </c>
-      <c r="J736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>9460</v>
+      </c>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24977,7 +25949,9 @@
       <c r="I737" t="n">
         <v>9285</v>
       </c>
-      <c r="J737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>9460</v>
+      </c>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25016,7 +25990,9 @@
       <c r="I738" t="n">
         <v>9295</v>
       </c>
-      <c r="J738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>9460</v>
+      </c>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25055,7 +26031,9 @@
       <c r="I739" t="n">
         <v>9295</v>
       </c>
-      <c r="J739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>9460</v>
+      </c>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25094,7 +26072,9 @@
       <c r="I740" t="n">
         <v>9300</v>
       </c>
-      <c r="J740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>9460</v>
+      </c>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25133,7 +26113,9 @@
       <c r="I741" t="n">
         <v>9330</v>
       </c>
-      <c r="J741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>9460</v>
+      </c>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25172,7 +26154,9 @@
       <c r="I742" t="n">
         <v>9295</v>
       </c>
-      <c r="J742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>9460</v>
+      </c>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25211,7 +26195,9 @@
       <c r="I743" t="n">
         <v>9280</v>
       </c>
-      <c r="J743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>9460</v>
+      </c>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25250,7 +26236,9 @@
       <c r="I744" t="n">
         <v>9340</v>
       </c>
-      <c r="J744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>9460</v>
+      </c>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25289,7 +26277,9 @@
       <c r="I745" t="n">
         <v>9370</v>
       </c>
-      <c r="J745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>9460</v>
+      </c>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25328,7 +26318,9 @@
       <c r="I746" t="n">
         <v>9370</v>
       </c>
-      <c r="J746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>9460</v>
+      </c>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25367,7 +26359,9 @@
       <c r="I747" t="n">
         <v>9350</v>
       </c>
-      <c r="J747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>9460</v>
+      </c>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25406,7 +26400,9 @@
       <c r="I748" t="n">
         <v>9370</v>
       </c>
-      <c r="J748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>9460</v>
+      </c>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25445,7 +26441,9 @@
       <c r="I749" t="n">
         <v>9410</v>
       </c>
-      <c r="J749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>9460</v>
+      </c>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25479,12 +26477,12 @@
         <v>-30030.76131797331</v>
       </c>
       <c r="H750" t="n">
-        <v>1</v>
-      </c>
-      <c r="I750" t="n">
-        <v>9390</v>
-      </c>
-      <c r="J750" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>9460</v>
+      </c>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25521,7 +26519,9 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>9460</v>
+      </c>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25558,7 +26558,9 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>9460</v>
+      </c>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25595,7 +26597,9 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>9460</v>
+      </c>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25632,7 +26636,9 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>9460</v>
+      </c>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25669,7 +26675,9 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>9460</v>
+      </c>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25706,7 +26714,9 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>9460</v>
+      </c>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25743,7 +26753,9 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>9460</v>
+      </c>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25780,7 +26792,9 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>9460</v>
+      </c>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25817,7 +26831,9 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>9460</v>
+      </c>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25854,7 +26870,9 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>9460</v>
+      </c>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25891,7 +26909,9 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>9460</v>
+      </c>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25928,7 +26948,9 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>9460</v>
+      </c>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25965,7 +26987,9 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>9460</v>
+      </c>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26002,7 +27026,9 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>9460</v>
+      </c>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26036,83 +27062,101 @@
         <v>-24136.13225542973</v>
       </c>
       <c r="H765" t="n">
+        <v>0</v>
+      </c>
+      <c r="I765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L765" t="n">
+        <v>1</v>
+      </c>
+      <c r="M765" t="inlineStr"/>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="B766" t="n">
+        <v>10140</v>
+      </c>
+      <c r="C766" t="n">
+        <v>10120</v>
+      </c>
+      <c r="D766" t="n">
+        <v>10150</v>
+      </c>
+      <c r="E766" t="n">
+        <v>9990</v>
+      </c>
+      <c r="F766" t="n">
+        <v>2311.1179</v>
+      </c>
+      <c r="G766" t="n">
+        <v>-26447.25015542973</v>
+      </c>
+      <c r="H766" t="n">
+        <v>0</v>
+      </c>
+      <c r="I766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L766" t="n">
+        <v>1</v>
+      </c>
+      <c r="M766" t="inlineStr"/>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>765</v>
+      </c>
+      <c r="B767" t="n">
+        <v>10090</v>
+      </c>
+      <c r="C767" t="n">
+        <v>10120</v>
+      </c>
+      <c r="D767" t="n">
+        <v>10120</v>
+      </c>
+      <c r="E767" t="n">
+        <v>10010</v>
+      </c>
+      <c r="F767" t="n">
+        <v>1761.489186350148</v>
+      </c>
+      <c r="G767" t="n">
+        <v>-26447.25015542973</v>
+      </c>
+      <c r="H767" t="n">
         <v>2</v>
       </c>
-      <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr">
+      <c r="I767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K767" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L765" t="inlineStr"/>
-      <c r="M765" t="inlineStr"/>
-    </row>
-    <row r="766">
-      <c r="A766" s="1" t="n">
-        <v>764</v>
-      </c>
-      <c r="B766" t="n">
-        <v>10140</v>
-      </c>
-      <c r="C766" t="n">
-        <v>10120</v>
-      </c>
-      <c r="D766" t="n">
-        <v>10150</v>
-      </c>
-      <c r="E766" t="n">
-        <v>9990</v>
-      </c>
-      <c r="F766" t="n">
-        <v>2311.1179</v>
-      </c>
-      <c r="G766" t="n">
-        <v>-26447.25015542973</v>
-      </c>
-      <c r="H766" t="n">
-        <v>2</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
-      <c r="L766" t="n">
-        <v>1</v>
-      </c>
-      <c r="M766" t="inlineStr"/>
-    </row>
-    <row r="767">
-      <c r="A767" s="1" t="n">
-        <v>765</v>
-      </c>
-      <c r="B767" t="n">
-        <v>10090</v>
-      </c>
-      <c r="C767" t="n">
-        <v>10120</v>
-      </c>
-      <c r="D767" t="n">
-        <v>10120</v>
-      </c>
-      <c r="E767" t="n">
-        <v>10010</v>
-      </c>
-      <c r="F767" t="n">
-        <v>1761.489186350148</v>
-      </c>
-      <c r="G767" t="n">
-        <v>-26447.25015542973</v>
-      </c>
-      <c r="H767" t="n">
-        <v>2</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
-        <v>1</v>
-      </c>
-      <c r="M767" t="inlineStr"/>
+        <v>1.064767441860465</v>
+      </c>
+      <c r="M767" t="n">
+        <v>1.097374179431072</v>
+      </c>
     </row>
     <row r="768">
       <c r="A768" s="1" t="n">
@@ -26137,7 +27181,7 @@
         <v>-26910.73305542973</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -26170,7 +27214,7 @@
         <v>-26840.16865542973</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -26401,7 +27445,7 @@
         <v>-29050.30070089334</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26434,7 +27478,7 @@
         <v>-29851.33850089334</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26995,7 +28039,7 @@
         <v>-18799.52933303619</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
